--- a/1.xlsx
+++ b/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xias\Desktop\AA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xia_data\myTool\频谱数据分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A503A82-3500-4528-A6F3-16DDB3ACA53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9569CC33-3CC8-4937-9268-5961F0D765F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="975" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,5007 +952,5007 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>473850.56910000002</v>
+        <v>63515.0208577308</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>250181.21909999999</v>
+        <v>65025.728045913798</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>263151.42080000002</v>
+        <v>62343.416504556997</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>262599.52510000003</v>
+        <v>63149.553650301503</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>261759.5999</v>
+        <v>64901.992994745597</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>262601.3518</v>
+        <v>65733.180580699205</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>261479.58869999999</v>
+        <v>63758.318711887303</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>262880.28600000002</v>
+        <v>63073.631064168803</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>262803.37900000002</v>
+        <v>62350.518569404201</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>262973.81839999999</v>
+        <v>63761.995601883398</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>263043.08490000002</v>
+        <v>64866.217901083801</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>262387.75919999997</v>
+        <v>62401.821187960297</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>262234.94329999998</v>
+        <v>63388.899993352803</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>262300.875</v>
+        <v>64308.364498624796</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>261825.11240000001</v>
+        <v>62967.738812377102</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>261548.68859999999</v>
+        <v>61453.756565458498</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>262876.2598</v>
+        <v>62263.842427000098</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>262433.11810000002</v>
+        <v>63569.358800564303</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>263229.42560000002</v>
+        <v>62586.010196472598</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>261208.5313</v>
+        <v>62811.5293652244</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>262788.90789999999</v>
+        <v>62951.7952434978</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>262425.19349999999</v>
+        <v>62518.0669489969</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>262909.38459999999</v>
+        <v>63927.458365745399</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>263365.44650000002</v>
+        <v>64437.959971063297</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>261437.12400000001</v>
+        <v>63358.909044065796</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>262903.71519999998</v>
+        <v>63372.843145580497</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>263198.98070000001</v>
+        <v>62859.2318996873</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>261919.23370000001</v>
+        <v>63511.502135357303</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>262661.05209999997</v>
+        <v>64493.570655429103</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>262736.40529999998</v>
+        <v>62894.280543487301</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>263145.1924</v>
+        <v>63784.992186221301</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>263492.65470000001</v>
+        <v>63234.848979206297</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>262592.11170000001</v>
+        <v>64337.729168738799</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>263120.2978</v>
+        <v>66315.323652475403</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>262269.09539999999</v>
+        <v>63916.170837785103</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>262950.57510000002</v>
+        <v>63703.592613342596</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>264076.36119999998</v>
+        <v>64664.552946268297</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>261963.04620000001</v>
+        <v>63610.533170563402</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>262133.14660000001</v>
+        <v>62330.049547059702</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>262465.90600000002</v>
+        <v>64234.53117224</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>262552.79680000001</v>
+        <v>62637.231194856002</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>262562.20510000002</v>
+        <v>62726.4095367665</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>262742.40509999997</v>
+        <v>63617.772716556399</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>262685.10849999997</v>
+        <v>64616.188576521301</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>261673.14170000001</v>
+        <v>62782.268040270901</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>262532.85159999999</v>
+        <v>63388.947141221899</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>262614.70559999999</v>
+        <v>63308.798121862201</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>262673.89150000003</v>
+        <v>63082.985384848602</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>263043.12699999998</v>
+        <v>63510.604355163399</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>263609.08980000002</v>
+        <v>64220.374045067903</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>262504.533</v>
+        <v>63355.2157842999</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>262012.08859999999</v>
+        <v>63158.626575377799</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>262037.05530000001</v>
+        <v>64008.529331533799</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>262564.17910000001</v>
+        <v>63984.726899184097</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>262077.59169999999</v>
+        <v>65015.402112698997</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>262954.12209999998</v>
+        <v>61903.431195687903</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>263059.85969999997</v>
+        <v>62712.663599643703</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>261834.628</v>
+        <v>63426.108728280102</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>262813.65169999999</v>
+        <v>64867.8999819647</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>262469.79700000002</v>
+        <v>64180.483068740999</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>261594.55609999999</v>
+        <v>63275.102662316298</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>262495.69870000001</v>
+        <v>62283.680552317703</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>263642.16680000001</v>
+        <v>64301.228105885697</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>262577.18800000002</v>
+        <v>63941.088795381504</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>262360.5539</v>
+        <v>64696.570299105799</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>263131.78730000003</v>
+        <v>62904.211110948403</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>262331.77389999997</v>
+        <v>64756.689291786701</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>262603.9031</v>
+        <v>63062.101825121099</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>261200.75539999999</v>
+        <v>63979.9767695544</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>263103.00550000003</v>
+        <v>63082.744161682996</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>262180.72110000002</v>
+        <v>63691.914197284997</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>261736.17189999999</v>
+        <v>65001.792858265399</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>263516.55790000001</v>
+        <v>63580.580551670297</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>262384.96919999999</v>
+        <v>63803.269622740503</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>262425.5675</v>
+        <v>62780.515828840696</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>261846.2304</v>
+        <v>62160.489654194302</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>261982.97</v>
+        <v>63831.095530578998</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>263184.92119999998</v>
+        <v>63431.421754187701</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>262045.27720000001</v>
+        <v>62455.263550177297</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>263249.18489999999</v>
+        <v>64324.406141409199</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>261669.62239999999</v>
+        <v>64646.342059880502</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>263185.50069999998</v>
+        <v>62704.852503988099</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>262832.60619999998</v>
+        <v>61747.950368510101</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>262119.19680000001</v>
+        <v>62803.853457999401</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>263296.4461</v>
+        <v>62966.071988999603</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>261865.64259999999</v>
+        <v>62420.376639582901</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>262747.4889</v>
+        <v>64782.037696152802</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>263570.27840000001</v>
+        <v>44738.699058055099</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>204728.584</v>
+        <v>-16961.7291890792</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>184192.7163</v>
+        <v>-15931.8710259037</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>182843.74600000001</v>
+        <v>-16699.533404222901</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>183366.375</v>
+        <v>-16256.425026331301</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>183523.99069999999</v>
+        <v>-23785.181957675799</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>208997.3504</v>
+        <v>65338.228712447999</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>263182.36930000002</v>
+        <v>62591.926963376303</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>263285.26089999999</v>
+        <v>64597.459055142303</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>262455.19799999997</v>
+        <v>62434.358690237699</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>263495.67229999998</v>
+        <v>62016.071571755303</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>259630.6164</v>
+        <v>-17181.078404617401</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>178570.9767</v>
+        <v>-16286.251274712</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>183311.91020000001</v>
+        <v>-17052.610392247901</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>183679.98050000001</v>
+        <v>-16816.688476149298</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>182363.34950000001</v>
+        <v>-10978.2352975824</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>182993.42920000001</v>
+        <v>66768.196971712401</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>268751.01030000002</v>
+        <v>63190.223664843499</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>261068.34719999999</v>
+        <v>63180.954394760898</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>263278.73349999997</v>
+        <v>61953.321806613101</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>262363.6286</v>
+        <v>62735.877601364198</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>261516.76850000001</v>
+        <v>2914.96591343409</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>186249.1814</v>
+        <v>-15642.0182396977</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>184728.57560000001</v>
+        <v>-17138.821818259399</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>183018.8639</v>
+        <v>-15980.1259207931</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>184351.90100000001</v>
+        <v>-15584.631438827</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>182682.5166</v>
+        <v>-234.96997529191199</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>237217.91209999999</v>
+        <v>60966.630302731101</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>262494.15990000003</v>
+        <v>63621.3830744636</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>262418.50780000002</v>
+        <v>63901.896064542001</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>263026.3812</v>
+        <v>63346.777603402603</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>262441.44050000003</v>
+        <v>69342.421380940898</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>241060.6642</v>
+        <v>-12880.5718779257</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>181356.79199999999</v>
+        <v>-17359.697657644901</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>183006.5105</v>
+        <v>-15334.5161565417</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>181704.58720000001</v>
+        <v>-16218.5706654511</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>184286.2941</v>
+        <v>-16466.087773623902</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>184699.01949999999</v>
+        <v>61612.622196790602</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>268856.29200000002</v>
+        <v>63054.840782681596</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>262928.37579999998</v>
+        <v>64918.009839712897</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>262514.30330000003</v>
+        <v>63332.986018081501</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>262262.86619999999</v>
+        <v>64286.376688062199</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>261545.79860000001</v>
+        <v>-22893.111220446499</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>177551.44990000001</v>
+        <v>-16655.218796081401</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>184267.4866</v>
+        <v>-13823.479070727501</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>183592.74859999999</v>
+        <v>-14512.9716757116</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>183421.75820000001</v>
+        <v>-15748.856307996601</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>182754.86610000001</v>
+        <v>40988.912924568802</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>259123.05660000001</v>
+        <v>63687.128987159398</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>261877.99559999999</v>
+        <v>62950.821089994999</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>262675.85950000002</v>
+        <v>63753.352312907104</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>262757.98759999999</v>
+        <v>63209.573416273299</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>262826.96980000002</v>
+        <v>64991.139130285803</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>261173.2</v>
+        <v>65238.5248241234</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>261590.55910000001</v>
+        <v>62650.819953342099</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>263522.47749999998</v>
+        <v>64342.679249668698</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>262436.72389999998</v>
+        <v>64313.654758913501</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>262587.19640000002</v>
+        <v>65325.153704138596</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>242841.69940000001</v>
+        <v>-13114.807351689</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>180874.3382</v>
+        <v>-15913.127055377699</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>182970.33619999999</v>
+        <v>-15580.3099279977</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>183140.16570000001</v>
+        <v>-17147.380789979801</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>183758.75169999999</v>
+        <v>-15763.954239804099</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>184620.98699999999</v>
+        <v>62548.1482895917</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>268512.34049999999</v>
+        <v>64338.554190869101</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>262406.4301</v>
+        <v>63268.087521544599</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>262652.88740000001</v>
+        <v>63711.862243547002</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>262143.3559</v>
+        <v>64711.150467583997</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>261662.62359999999</v>
+        <v>-19740.4566767135</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>177899.0833</v>
+        <v>-15403.621312806999</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>185313.45879999999</v>
+        <v>-15801.746832614601</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>183830.82120000001</v>
+        <v>-16007.1427479836</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>183491.81450000001</v>
+        <v>-17287.403908089898</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>183411.32620000001</v>
+        <v>35517.046961837797</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>256872.33859999999</v>
+        <v>63240.831132304302</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>260601.166</v>
+        <v>61213.157198136098</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>263168.51539999997</v>
+        <v>63086.368381695902</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>263129.3076</v>
+        <v>64638.063561375202</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>262361.10820000002</v>
+        <v>56430.447319254898</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>216403.2953</v>
+        <v>-17344.5779573195</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>183330.65359999999</v>
+        <v>-15095.9902291816</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>182410.8297</v>
+        <v>-15649.1657587151</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>183129.29990000001</v>
+        <v>-16677.632460323199</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>183542.52910000001</v>
+        <v>-23361.156602938401</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>198833.98420000001</v>
+        <v>64882.226370699304</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>265844.4999</v>
+        <v>62598.607493028998</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>261964.36629999999</v>
+        <v>64521.887097724699</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>262497.29629999999</v>
+        <v>63267.534035158998</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>261743.06690000001</v>
+        <v>63875.346239255399</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>262835.78370000003</v>
+        <v>-20480.673445904798</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>176641.46489999999</v>
+        <v>-15812.920873225399</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>182864.87729999999</v>
+        <v>-14956.4702563258</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>182525.52739999999</v>
+        <v>-16340.1391841322</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>183246.9351</v>
+        <v>-15676.6574740039</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>183558.58350000001</v>
+        <v>66775.691865845598</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>268510.28529999999</v>
+        <v>63421.086699278902</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>260985.89079999999</v>
+        <v>61956.627299301297</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>263413.62439999997</v>
+        <v>63136.613888296102</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>262252.30570000003</v>
+        <v>63959.324917669503</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>262447.83399999997</v>
+        <v>19954.8020600331</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>192246.64480000001</v>
+        <v>-17272.386389384399</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>184369.36869999999</v>
+        <v>-16171.785364911701</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>184122.26190000001</v>
+        <v>-14852.0947449016</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>182178.28510000001</v>
+        <v>-16699.2130002698</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>183105.09340000001</v>
+        <v>-13630.537266466101</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>226727.2016</v>
+        <v>65075.916481811597</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>262743.03909999999</v>
+        <v>62471.056081650902</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>263275.23019999999</v>
+        <v>63785.716776823203</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>262267.8799</v>
+        <v>65241.401292131399</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>261109.43280000001</v>
+        <v>61630.220318393302</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>261835.46460000001</v>
+        <v>65381.987156750802</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>263197.31030000001</v>
+        <v>63675.509348745203</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>262643.8885</v>
+        <v>62748.139166851601</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>263573.75189999997</v>
+        <v>64420.6115841028</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>262671.08929999999</v>
+        <v>65684.601849071201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>262706.2415</v>
+        <v>-19910.4780726221</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>176920.4252</v>
+        <v>-14613.350953704399</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>183211.16399999999</v>
+        <v>-16264.3644344526</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>182781.98120000001</v>
+        <v>-15639.5159628241</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>182762.93489999999</v>
+        <v>-17921.627824364801</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>183650.22010000001</v>
+        <v>63908.9928991954</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>266447.6765</v>
+        <v>63116.233761893804</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>262094.49710000001</v>
+        <v>64026.506091472198</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>261768.67540000001</v>
+        <v>61606.7141273905</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>262036.8749</v>
+        <v>62277.734194820798</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>263165.84840000002</v>
+        <v>24860.274343364999</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>195095.68059999999</v>
+        <v>-16663.903187557698</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>184087.52179999999</v>
+        <v>-15153.2569295218</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>183295.49650000001</v>
+        <v>-14554.3261934075</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>182736.8224</v>
+        <v>-15014.5743920854</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>183035.45300000001</v>
+        <v>-16016.041738825499</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>222246.82389999999</v>
+        <v>64953.087987278101</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>263111.52519999997</v>
+        <v>62783.354154022803</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>263154.96010000003</v>
+        <v>62909.847403645101</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>262614.74440000003</v>
+        <v>63083.865571792099</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>263080.67739999999</v>
+        <v>61981.005385433797</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>253289.88750000001</v>
+        <v>-12972.9325684868</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>180868.0821</v>
+        <v>-15311.416008512</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>183216.80429999999</v>
+        <v>-15408.027451166499</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>183418.9852</v>
+        <v>-16226.7388880667</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>182042.05499999999</v>
+        <v>-11036.744305747499</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>182141.99950000001</v>
+        <v>62090.542388415102</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>268560.31430000003</v>
+        <v>63795.402332576297</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>262881.48450000002</v>
+        <v>63739.8274996568</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>262328.99790000002</v>
+        <v>62274.380786231202</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>263808.02750000003</v>
+        <v>65264.116744562001</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>263691.67619999999</v>
+        <v>-13670.8396969735</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>180620.1471</v>
+        <v>-15654.2754358041</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>183634.3394</v>
+        <v>-16839.948274992101</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>183042.68359999999</v>
+        <v>-16834.871736735899</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>183457.3941</v>
+        <v>-16292.5724373506</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>183441.09340000001</v>
+        <v>18820.275734734099</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>249143.32629999999</v>
+        <v>61703.287236913202</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>260613.2255</v>
+        <v>64233.407034257099</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>263130.65990000003</v>
+        <v>63557.8883689801</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>262733.09620000003</v>
+        <v>64494.309689392103</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>263188.32150000002</v>
+        <v>63045.286011095101</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>227315.796</v>
+        <v>-16984.743950129501</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>182136.07920000001</v>
+        <v>-14505.972966589899</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>183722.49299999999</v>
+        <v>-15955.0488993777</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>183183.75820000001</v>
+        <v>-14828.4366704521</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>183927.70619999999</v>
+        <v>-21666.709331988099</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>190944.48420000001</v>
+        <v>64552.6631125493</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>265685.10119999998</v>
+        <v>63680.566439500799</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>263116.38630000001</v>
+        <v>64041.3006908518</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>261531.1165</v>
+        <v>64111.606443092802</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>264099.39679999999</v>
+        <v>61559.493896625499</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>261853.08919999999</v>
+        <v>63850.243206278297</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>263184.45380000002</v>
+        <v>62316.044116380501</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>262819.31150000001</v>
+        <v>65396.416371118903</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>262396.27730000002</v>
+        <v>62725.183882021098</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>262270.65169999999</v>
+        <v>64247.0504402277</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>262828.6262</v>
+        <v>-6209.6751119281698</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>181338.00630000001</v>
+        <v>-15658.2363669721</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>184385.04190000001</v>
+        <v>-15735.102116879199</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>183703.91200000001</v>
+        <v>-17659.9774139777</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>184954.26139999999</v>
+        <v>-14942.248318001301</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>182905.4387</v>
+        <v>-15117.3902170534</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>183636.78810000001</v>
+        <v>-17189.1310042105</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>183575.73499999999</v>
+        <v>-17321.624603384898</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>183345.84160000001</v>
+        <v>-15577.471957829001</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>182615.3751</v>
+        <v>-14599.7651435199</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>182769.16699999999</v>
+        <v>-20504.201991975198</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>213235.19579999999</v>
+        <v>64456.572711849803</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>264768.93030000001</v>
+        <v>62993.651979619302</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>262201.97629999998</v>
+        <v>64589.957661258602</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>263708.53970000002</v>
+        <v>62231.367918813899</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>261721.45550000001</v>
+        <v>62041.905535423102</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>258248.05410000001</v>
+        <v>-14034.381219237899</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>178930.2592</v>
+        <v>-15984.471855391999</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>182337.43150000001</v>
+        <v>-15463.843781054</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>182926.43669999999</v>
+        <v>-15115.259372431399</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>184200.677</v>
+        <v>-12537.042280575801</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>182345.19089999999</v>
+        <v>65038.276730473997</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>269369.0356</v>
+        <v>62515.521729193999</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>262229.97200000001</v>
+        <v>65173.194093361402</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>262834.62150000001</v>
+        <v>64490.366201266203</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>261744.69560000001</v>
+        <v>61908.610084346401</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>261698.12210000001</v>
+        <v>63583.203232072403</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>263471.22600000002</v>
+        <v>61550.924529823598</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>262898.0135</v>
+        <v>63128.791189387601</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>263773.22279999999</v>
+        <v>63426.109219655496</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>262473.44689999998</v>
+        <v>62658.495192637303</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>263168.59149999998</v>
+        <v>43774.838632949402</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>203384.04610000001</v>
+        <v>-16845.980694770202</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>184660.77480000001</v>
+        <v>-14036.844615490199</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>183894.38250000001</v>
+        <v>-15320.863580700099</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>183001.6894</v>
+        <v>-17374.332335913499</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>182059.0987</v>
+        <v>-24283.6334093595</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>210575.08549999999</v>
+        <v>66201.128744716698</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>263702.85379999998</v>
+        <v>64148.482601461597</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>262965.63699999999</v>
+        <v>62661.906482742299</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>262402.35330000002</v>
+        <v>64045.453017957101</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>262013.9633</v>
+        <v>62289.019422835197</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>259784.1379</v>
+        <v>-14116.4646080477</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>178793.5036</v>
+        <v>-15967.257267806899</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>182710.59330000001</v>
+        <v>-16667.2192007636</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>183576.9173</v>
+        <v>-15358.598284543499</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>183422.50959999999</v>
+        <v>-12575.8396791305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>183438.88130000001</v>
+        <v>64543.582714561097</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>268156.58299999998</v>
+        <v>61527.382561900398</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>263207.16460000002</v>
+        <v>62572.961266431601</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>262353.88630000001</v>
+        <v>65234.180601212502</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>262662.77490000002</v>
+        <v>63764.995400263098</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>263167.81550000003</v>
+        <v>62612.280595282798</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>262476.7231</v>
+        <v>61223.6548598503</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>262075.71979999999</v>
+        <v>64547.038886994502</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>262565.06140000001</v>
+        <v>62852.710032726602</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>263098.47610000003</v>
+        <v>62374.218688461398</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>261617.41589999999</v>
+        <v>46646.264644027702</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>206895.13930000001</v>
+        <v>-16636.0398404267</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>183216.0226</v>
+        <v>-15527.0869662675</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>181744.1286</v>
+        <v>-16631.473419124301</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>182940.33249999999</v>
+        <v>-16619.114554958502</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>183543.56340000001</v>
+        <v>-16014.7411636049</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>183910.0577</v>
+        <v>-16599.1215381367</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>182864.5913</v>
+        <v>-16468.441900251099</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>182768.77179999999</v>
+        <v>-16195.4864526683</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>182403.04240000001</v>
+        <v>-16501.235180258798</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>183499.52480000001</v>
+        <v>-15360.6868349095</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>184930.03829999999</v>
+        <v>62283.1842233555</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>268051.92080000002</v>
+        <v>63211.104454685301</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>263712.196</v>
+        <v>64718.244211431302</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>262559.10110000003</v>
+        <v>63310.045491995203</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>262556.56099999999</v>
+        <v>64955.807422318001</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>262954.4019</v>
+        <v>-21172.116497445499</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>176771.1875</v>
+        <v>-15050.3464432743</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>184646.01949999999</v>
+        <v>-13164.3839025707</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>183002.86259999999</v>
+        <v>-14317.7649961765</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>183258.62400000001</v>
+        <v>-17119.272751473902</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>182409.45439999999</v>
+        <v>43806.690901245303</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>259951.42809999999</v>
+        <v>63101.567364868497</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>261520.38260000001</v>
+        <v>60866.152742636099</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>261692.76689999999</v>
+        <v>63390.075679794601</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>261980.00289999999</v>
+        <v>60930.151440723101</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>262801.54719999997</v>
+        <v>53569.053151920903</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>209083.00640000001</v>
+        <v>-16973.853752889499</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>183969.27410000001</v>
+        <v>-16849.8181764369</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>182819.39799999999</v>
+        <v>-14951.8644368307</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>182923.1703</v>
+        <v>-14472.4681389341</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>183183.24129999999</v>
+        <v>-22715.874719101499</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>203057.8223</v>
+        <v>64455.454721280403</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>263916.05690000003</v>
+        <v>63436.857409976299</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>262854.4313</v>
+        <v>63985.743992484902</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>262963.70289999997</v>
+        <v>65975.364929247895</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>261806.0042</v>
+        <v>62522.809253027699</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>261190.4987</v>
+        <v>-17924.599619891898</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>178369.6635</v>
+        <v>-15513.7506844784</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>183122.20009999999</v>
+        <v>-15377.908471861499</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>183994.21780000001</v>
+        <v>-15610.761157524999</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>183929.61240000001</v>
+        <v>-15028.7199996237</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>182052.83119999999</v>
+        <v>67108.272333792207</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>268770.9375</v>
+        <v>64455.4244421068</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>263449.91029999999</v>
+        <v>63210.388416016402</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>263407.24729999999</v>
+        <v>62142.948406695199</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>262052.7132</v>
+        <v>62293.968793763299</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>262651.44760000001</v>
+        <v>62023.700572751499</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>262268.23629999999</v>
+        <v>62200.348378247603</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>261185.39619999999</v>
+        <v>63956.4739343111</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>263469.72499999998</v>
+        <v>63948.582205721403</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>262423.37520000001</v>
+        <v>62222.6673375795</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>262489.78220000002</v>
+        <v>62177.051009601899</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>262506.8823</v>
+        <v>62769.804191773801</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>262113.9952</v>
+        <v>63273.303245322</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>262137.0937</v>
+        <v>63728.605749689101</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>261681.22260000001</v>
+        <v>64360.058840018202</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>263264.29359999998</v>
+        <v>64780.591010895703</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>245704.6974</v>
+        <v>-11725.9293745783</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>181520.99280000001</v>
+        <v>-15762.558896836699</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>183315.42660000001</v>
+        <v>-16090.4457053812</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>183268.52160000001</v>
+        <v>-12423.5978708685</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>182113.42389999999</v>
+        <v>-14762.826361502701</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>184822.33480000001</v>
+        <v>64444.700207460897</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>268255.47850000003</v>
+        <v>64513.005621033401</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>262282.31650000002</v>
+        <v>64950.800412846504</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>263394.67589999997</v>
+        <v>62580.086661236201</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>262052.50589999999</v>
+        <v>62362.278745015101</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>263298.88939999999</v>
+        <v>62179.249366269098</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>262368.00260000001</v>
+        <v>63251.346650614702</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>262942.04369999998</v>
+        <v>64214.381964463297</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>262841.33769999997</v>
+        <v>62466.033137808998</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>261449.927</v>
+        <v>63643.527461190402</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>262890.7659</v>
+        <v>63919.173844632198</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>262883.77909999999</v>
+        <v>62123.551446189798</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>261945.48449999999</v>
+        <v>63390.685150270598</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>262425.33490000002</v>
+        <v>63759.644362395004</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>263628.2941</v>
+        <v>61706.939067296204</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>262233.02879999997</v>
+        <v>63118.242154302403</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>262549.51659999997</v>
+        <v>62483.2306853029</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>262399.96360000002</v>
+        <v>64034.380244193802</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>262488.57199999999</v>
+        <v>64069.782861487904</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>261910.56140000001</v>
+        <v>62268.974477402196</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>263103.19919999997</v>
+        <v>64410.7828089334</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>249779.1061</v>
+        <v>-14167.398870520899</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>179416.08679999999</v>
+        <v>-17843.7455117996</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>182127.40429999999</v>
+        <v>-17168.660986425999</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>183102.7513</v>
+        <v>-16536.771809749302</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>182364.08230000001</v>
+        <v>-12639.8038843172</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>183624.79310000001</v>
+        <v>63329.223622453603</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>270181.06040000002</v>
+        <v>63163.679344856602</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>262230.06109999999</v>
+        <v>63829.6606127821</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>261926.29029999999</v>
+        <v>62336.517961604099</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>263149.40240000002</v>
+        <v>62082.789682344097</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>262347.7034</v>
+        <v>63428.814691254098</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>261959.92430000001</v>
+        <v>62513.895126166302</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>263335.18369999999</v>
+        <v>62038.196369823701</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>263207.4755</v>
+        <v>62835.021900100102</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>262274.27649999998</v>
+        <v>61365.7176451013</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>262065.29879999999</v>
+        <v>24050.4834523768</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>193777.7518</v>
+        <v>-17811.979064523199</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>184228.0521</v>
+        <v>-14757.1938364215</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>183092.55309999999</v>
+        <v>-16307.851516009199</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>182951.38699999999</v>
+        <v>-16566.454658869101</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>181429.33180000001</v>
+        <v>-15561.360928046801</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>224220.35060000001</v>
+        <v>66395.281604361197</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>262290.57250000001</v>
+        <v>64286.604786869299</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>262832.42609999998</v>
+        <v>63028.988650979998</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>262278.16239999997</v>
+        <v>63204.497215743802</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>263023.40460000001</v>
+        <v>64084.331789048098</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>262589.60769999999</v>
+        <v>62560.138741852199</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>262829.84330000001</v>
+        <v>63949.726885103701</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>262875.62150000001</v>
+        <v>62891.507292401599</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>262605.35729999997</v>
+        <v>63048.132347928498</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>261944.77050000001</v>
+        <v>62353.141989156102</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>262538.49479999999</v>
+        <v>-23125.195452432301</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>177562.04459999999</v>
+        <v>-15598.9827622959</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>183469.63370000001</v>
+        <v>-15683.1601130454</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>183705.60690000001</v>
+        <v>-16070.0691663052</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>182286.9823</v>
+        <v>-16361.414938148901</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>183142.0877</v>
+        <v>62692.072092259899</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>266140.30660000001</v>
+        <v>61177.669541760399</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>260907.78039999999</v>
+        <v>65123.654390272401</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>261417.5961</v>
+        <v>62188.771101348102</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>263219.45549999998</v>
+        <v>62574.396442036603</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>263144.65990000003</v>
+        <v>63823.041496672296</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>261618.94639999999</v>
+        <v>62692.779909021599</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>263168.98810000002</v>
+        <v>63768.4462527043</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>261989.57670000001</v>
+        <v>62149.363980196402</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>263504.96919999999</v>
+        <v>64490.714526994503</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>262112.3504</v>
+        <v>63093.125405939398</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>263542.79369999998</v>
+        <v>63088.509345960701</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>264377.15279999998</v>
+        <v>61796.901581015802</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>262542.34000000003</v>
+        <v>63830.503752271201</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>262660.84610000002</v>
+        <v>64962.971481225803</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>261948.08499999999</v>
+        <v>62088.289713453603</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>262682.69170000002</v>
+        <v>62762.466896624697</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>263998.60159999999</v>
+        <v>63997.977067825101</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>263239.48269999999</v>
+        <v>61552.959613986699</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>261846.06820000001</v>
+        <v>61575.348288583802</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>262797.27309999999</v>
+        <v>64928.777915214298</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>262876.71240000002</v>
+        <v>-23270.170388474198</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>176535.58979999999</v>
+        <v>-14234.480239712801</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>183649.44589999999</v>
+        <v>-17707.671030165598</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>183552.24290000001</v>
+        <v>-14789.4731191954</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>183417.72779999999</v>
+        <v>-13964.582238032301</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>183224.97219999999</v>
+        <v>59165.829114230903</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>265241.87040000001</v>
+        <v>65104.989287850403</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>261644.42679999999</v>
+        <v>64530.092460153603</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>262918.39110000001</v>
+        <v>65100.530625282998</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>262796.86300000001</v>
+        <v>62977.949564885297</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>263182.30499999999</v>
+        <v>62738.083811351898</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>261703.1942</v>
+        <v>63359.167953144897</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>262364.15039999998</v>
+        <v>63848.931616078597</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>262475.66379999998</v>
+        <v>62412.558792150397</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>262438.10550000001</v>
+        <v>65662.352771901802</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>262386.21799999999</v>
+        <v>68304.323847995402</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>229690.00320000001</v>
+        <v>-13778.4315412823</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>181843.36350000001</v>
+        <v>-16083.4378217052</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>181657.01790000001</v>
+        <v>-15948.810892759901</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>184790.9724</v>
+        <v>-16710.862457438099</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>182074.61960000001</v>
+        <v>-19115.685358155599</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>189588.0355</v>
+        <v>63161.808843706502</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>265306.35019999999</v>
+        <v>64087.7764713133</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>262565.8113</v>
+        <v>64374.630784449801</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>261837.16459999999</v>
+        <v>63934.631193388901</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>261904.70509999999</v>
+        <v>65105.986342270699</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>262103.64660000001</v>
+        <v>63705.093911744203</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>262263.62540000002</v>
+        <v>62786.508504424201</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>263092.29210000002</v>
+        <v>64683.596541763</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>262258.2401</v>
+        <v>63900.385112403397</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>261840.51800000001</v>
+        <v>64179.889354706698</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>262494.10580000002</v>
+        <v>-3182.90350514177</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>182653.6513</v>
+        <v>-14040.581022227299</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>184437.2359</v>
+        <v>-15235.057648514199</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>182653.1948</v>
+        <v>-16511.8810652785</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>183967.54</v>
+        <v>-15306.0532195916</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>183249.30249999999</v>
+        <v>10102.5046328751</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>243048.2885</v>
+        <v>65327.851665366303</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>261780.28159999999</v>
+        <v>65217.799250074197</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>261134.05429999999</v>
+        <v>62586.843702935803</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>263088.23139999999</v>
+        <v>63583.529434251599</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>262430.71799999999</v>
+        <v>63184.311553855398</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>262438.99249999999</v>
+        <v>64034.396767472499</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>263249.77730000002</v>
+        <v>63466.120605468801</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>261937.49729999999</v>
+        <v>64335.619325551801</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>263192.5048</v>
+        <v>63575.102415825502</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>263019.92219999997</v>
+        <v>62155.133879518697</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
-        <v>263213.61099999998</v>
+        <v>63323.9114146024</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
-        <v>260632.0754</v>
+        <v>63659.853974345097</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>262768.32319999998</v>
+        <v>65107.201753571098</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
-        <v>262652.31270000001</v>
+        <v>63437.907106516403</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
-        <v>263001.75959999999</v>
+        <v>65347.271436371098</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
-        <v>263329.98499999999</v>
+        <v>64646.098214542202</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
-        <v>262775.28810000001</v>
+        <v>62351.555663434701</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
-        <v>262447.41629999998</v>
+        <v>62762.887345293202</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
-        <v>264074.05540000001</v>
+        <v>62495.104391839603</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
-        <v>261446.06649999999</v>
+        <v>63590.845630182797</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
-        <v>263219.23430000001</v>
+        <v>-957.09314697953198</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
-        <v>184347.3328</v>
+        <v>-16305.7345848201</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
-        <v>184139.0852</v>
+        <v>-16776.765640260099</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
-        <v>182642.4062</v>
+        <v>-14929.9823474814</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
-        <v>183056.93960000001</v>
+        <v>-15392.704706955999</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
-        <v>182729.02669999999</v>
+        <v>3754.7647651796401</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
-        <v>241919.8058</v>
+        <v>63822.178454001798</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
-        <v>262110.17230000001</v>
+        <v>63373.429766641697</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
-        <v>261680.44070000001</v>
+        <v>62825.153641130499</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
-        <v>261902.7689</v>
+        <v>64050.536751466803</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
-        <v>262802.20850000001</v>
+        <v>64152.963874294401</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
-        <v>263422.74449999997</v>
+        <v>62942.405643411097</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
-        <v>261442.1526</v>
+        <v>62750.6498352852</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
-        <v>262767.16489999997</v>
+        <v>60980.790563850998</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
-        <v>262760.49489999999</v>
+        <v>63303.786674148898</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
-        <v>261979.36199999999</v>
+        <v>64897.0862132892</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
-        <v>259791.06140000001</v>
+        <v>-17502.978905121901</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
-        <v>179369.27679999999</v>
+        <v>-15116.321697936701</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
-        <v>183158.96890000001</v>
+        <v>-14564.0475085782</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
-        <v>183344.28450000001</v>
+        <v>-16579.526568386998</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
-        <v>183078.2267</v>
+        <v>-14584.061365654499</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
-        <v>183879.0129</v>
+        <v>64867.873455485998</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
-        <v>268812.84970000002</v>
+        <v>64860.404487579101</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
-        <v>262210.27500000002</v>
+        <v>63753.7341713282</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
-        <v>263162.60940000002</v>
+        <v>62722.893061903902</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
-        <v>262220.48229999997</v>
+        <v>64179.889354706698</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
-        <v>261650.05739999999</v>
+        <v>62436.875464929399</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
-        <v>261834.1997</v>
+        <v>64493.243419013299</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
-        <v>262595.65149999998</v>
+        <v>65549.961846535603</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
-        <v>262129.253</v>
+        <v>63886.645779329701</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
-        <v>263501.06699999998</v>
+        <v>64613.772487986404</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
-        <v>262709.97840000002</v>
+        <v>51114.482949044199</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
-        <v>208234.8051</v>
+        <v>-17209.378979777201</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
-        <v>183960.9895</v>
+        <v>-14064.2128524075</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
-        <v>183714.25839999999</v>
+        <v>-16366.1827616888</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
-        <v>182835.09529999999</v>
+        <v>-18331.794599844499</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
-        <v>183102.86079999999</v>
+        <v>-21907.478613487499</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
-        <v>183032.37390000001</v>
+        <v>66692.730992552097</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
-        <v>184408.71100000001</v>
+        <v>63594.7202915136</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
-        <v>182607.5796</v>
+        <v>62650.313658095001</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
-        <v>183571.0914</v>
+        <v>65382.819259602198</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
-        <v>183213.1752</v>
+        <v>62687.461337464803</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
-        <v>184644.33290000001</v>
+        <v>-16863.811525761699</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
-        <v>268300.5098</v>
+        <v>-17061.7008064767</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
-        <v>261708.1991</v>
+        <v>-17497.422259151201</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
-        <v>261873.644</v>
+        <v>-16599.205921437198</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
-        <v>263369.8688</v>
+        <v>-15549.152869133801</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
-        <v>262519.9338</v>
+        <v>-15926.1437644621</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
-        <v>177499.08840000001</v>
+        <v>-17434.092117115801</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
-        <v>184896.6225</v>
+        <v>-15528.932883073499</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
-        <v>183138.4578</v>
+        <v>-14721.763309145899</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
-        <v>183087.4559</v>
+        <v>-15053.181807159201</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
-        <v>184097.67720000001</v>
+        <v>-14793.586290225699</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
-        <v>183646.00649999999</v>
+        <v>-16759.918407619702</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
-        <v>183019.16810000001</v>
+        <v>-17631.152359191601</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
-        <v>182782.69190000001</v>
+        <v>-14955.2425707816</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
-        <v>183431.68539999999</v>
+        <v>-15584.606043125599</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
-        <v>183214.95</v>
+        <v>-4478.5074278389202</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
-        <v>183506.2488</v>
+        <v>64141.9418708585</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
-        <v>183513.02650000001</v>
+        <v>61425.862847103803</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
-        <v>184026.25039999999</v>
+        <v>62539.056348793398</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
-        <v>183115.55540000001</v>
+        <v>60636.935235139797</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
-        <v>183473.12940000001</v>
+        <v>64482.874817719501</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
-        <v>182664.34090000001</v>
+        <v>63303.327312086003</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
-        <v>183838.1306</v>
+        <v>62833.150649581898</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
-        <v>182514.32689999999</v>
+        <v>62944.313344777504</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
-        <v>183383.861</v>
+        <v>61070.398977429497</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
-        <v>183106.30170000001</v>
+        <v>63091.484270235</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
-        <v>183308.52350000001</v>
+        <v>62078.166220896899</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
-        <v>182466.95</v>
+        <v>61836.3552122084</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
-        <v>183694.77369999999</v>
+        <v>62448.011604303902</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
-        <v>182101.63750000001</v>
+        <v>62521.067291295702</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
-        <v>184080.02859999999</v>
+        <v>64209.6307394904</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
-        <v>183870.3708</v>
+        <v>-18059.4145770467</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
-        <v>181840.72690000001</v>
+        <v>-16868.216799882099</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
-        <v>183558.80420000001</v>
+        <v>-16055.029806439599</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
-        <v>183205.90100000001</v>
+        <v>-17036.029441079801</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
-        <v>183852.9135</v>
+        <v>-17180.069456853002</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
-        <v>182317.4878</v>
+        <v>33421.032204625597</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
-        <v>257139.6018</v>
+        <v>62181.098947201201</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
-        <v>261783.32680000001</v>
+        <v>63384.243093673504</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
-        <v>262608.46139999997</v>
+        <v>63987.078754368398</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
-        <v>261681.05300000001</v>
+        <v>62017.497709503099</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
-        <v>262667.18329999998</v>
+        <v>62593.801616038603</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
-        <v>262064.17660000001</v>
+        <v>61239.8535130124</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
-        <v>262088.39379999999</v>
+        <v>65272.558017811702</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
-        <v>263270.5576</v>
+        <v>63436.215816929398</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
-        <v>263802.8652</v>
+        <v>63946.646168760402</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
-        <v>262695.63699999999</v>
+        <v>63707.449670016002</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
-        <v>247789.6912</v>
+        <v>-14485.5764927525</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
-        <v>181134.4535</v>
+        <v>-17503.875489752299</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
-        <v>183672.7403</v>
+        <v>-15472.266021520099</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
-        <v>183558.85709999999</v>
+        <v>-17241.950139352899</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
-        <v>183084.65169999999</v>
+        <v>-15148.361905731401</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
-        <v>183089.14939999999</v>
+        <v>63549.356820860601</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
-        <v>267888.89640000003</v>
+        <v>62480.247045012897</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
-        <v>261720.97779999999</v>
+        <v>62898.542072103897</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
-        <v>262922.11739999999</v>
+        <v>62282.709245653197</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
-        <v>262189.72519999999</v>
+        <v>62446.426976575603</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
-        <v>263362.1226</v>
+        <v>63440.0176880051</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
-        <v>261717.82800000001</v>
+        <v>64463.770016550501</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
-        <v>262421.4118</v>
+        <v>64143.053132030902</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
-        <v>262604.03710000002</v>
+        <v>61893.789098859503</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
-        <v>263226.00959999999</v>
+        <v>61603.391776268603</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
-        <v>262733.83240000001</v>
+        <v>20701.301471297898</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
-        <v>192078.2084</v>
+        <v>-14970.236192382799</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
-        <v>184290.2672</v>
+        <v>-16247.075333712601</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
-        <v>183516.5674</v>
+        <v>-15473.3325782254</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
-        <v>183056.10149999999</v>
+        <v>-16344.2222533969</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
-        <v>183241.50229999999</v>
+        <v>-13841.4026216574</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
-        <v>183707.62659999999</v>
+        <v>-16261.8593160156</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
-        <v>184002.87779999999</v>
+        <v>-15887.4715536886</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
-        <v>182585.56090000001</v>
+        <v>-16298.6725519642</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
-        <v>184169.54920000001</v>
+        <v>-16862.075161367899</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
-        <v>183068.28690000001</v>
+        <v>-22452.254187557501</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
-        <v>194551.00140000001</v>
+        <v>64497.631895726801</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
-        <v>265299.02020000003</v>
+        <v>64021.869460625298</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
-        <v>262272.46639999998</v>
+        <v>63571.551392825699</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
-        <v>262927.6323</v>
+        <v>64157.145860758603</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
-        <v>263287.56910000002</v>
+        <v>63081.890206287499</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
-        <v>262284.04759999999</v>
+        <v>-20091.975095360802</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
-        <v>178217.30669999999</v>
+        <v>-16000.628453813</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
-        <v>182854.84229999999</v>
+        <v>-15337.916161397599</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
-        <v>182850.28270000001</v>
+        <v>-16738.109181041898</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
-        <v>183769.88219999999</v>
+        <v>-14693.418294523801</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
-        <v>183691.15210000001</v>
+        <v>-16191.946770676201</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
-        <v>183381.3873</v>
+        <v>-16061.9799622507</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
-        <v>182558.11600000001</v>
+        <v>-16220.88637206</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
-        <v>182963.52230000001</v>
+        <v>-15075.6744108983</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
-        <v>182883.8346</v>
+        <v>-15775.8264485648</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
-        <v>181768.82120000001</v>
+        <v>-18076.8914137631</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
-        <v>183651.33989999999</v>
+        <v>-19112.3314007878</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
-        <v>182579.73809999999</v>
+        <v>-15152.903523286701</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
-        <v>182702.86900000001</v>
+        <v>-15192.1244227635</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
-        <v>183361.568</v>
+        <v>-14267.966382712801</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
-        <v>183680.8272</v>
+        <v>-17821.0606869187</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
-        <v>221270.28210000001</v>
+        <v>65970.255380980205</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
-        <v>262182.06900000002</v>
+        <v>63364.978352514197</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
-        <v>262561.6311</v>
+        <v>62667.545529998803</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
-        <v>263124.39510000002</v>
+        <v>63238.44921875</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
-        <v>263147.97970000003</v>
+        <v>62513.5692268036</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
-        <v>262568.31660000002</v>
+        <v>63741.561467887703</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
-        <v>261982.79819999999</v>
+        <v>65194.084012156498</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
-        <v>262663.15059999999</v>
+        <v>64430.907200293601</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
-        <v>263032.59779999999</v>
+        <v>62899.552383777198</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
-        <v>262400.02350000001</v>
+        <v>66057.439066644001</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
-        <v>263157.4252</v>
+        <v>-22142.236873550999</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
-        <v>177071.72889999999</v>
+        <v>-15137.8655047968</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
-        <v>183307.17079999999</v>
+        <v>-16078.6033093686</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
-        <v>181948.9988</v>
+        <v>-16428.485500061601</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
-        <v>182974.13159999999</v>
+        <v>-14708.8210533539</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
-        <v>183091.6532</v>
+        <v>-17185.080171121699</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
-        <v>183720.83689999999</v>
+        <v>-16514.455781703298</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
-        <v>182762.85260000001</v>
+        <v>-16384.113377886599</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
-        <v>183974.75150000001</v>
+        <v>-16218.9775449806</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
-        <v>182266.04139999999</v>
+        <v>-16830.532686533399</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
-        <v>184534.15760000001</v>
+        <v>16294.145342493701</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
-        <v>247405.0606</v>
+        <v>62595.334566104102</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
-        <v>261888.7666</v>
+        <v>62807.040173653797</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
-        <v>260965.54939999999</v>
+        <v>63132.847877474996</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
-        <v>262009.5606</v>
+        <v>63388.2732896624</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
-        <v>263320.86349999998</v>
+        <v>63047.490160754802</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
-        <v>262968.42509999999</v>
+        <v>65373.542296257299</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
-        <v>262574.80650000001</v>
+        <v>62847.5307835532</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
-        <v>262120.9938</v>
+        <v>62567.103272091597</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
-        <v>263086.00099999999</v>
+        <v>64168.4828610896</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
-        <v>261658.32750000001</v>
+        <v>63856.638696644302</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
-        <v>256903.67240000001</v>
+        <v>-12596.9351110027</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
-        <v>178829.3927</v>
+        <v>-15550.4649233541</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
-        <v>182578.37289999999</v>
+        <v>-14174.974141511801</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
-        <v>182891.25200000001</v>
+        <v>-16390.597124887001</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
-        <v>183185.47700000001</v>
+        <v>-14737.692839101101</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
-        <v>183135.30669999999</v>
+        <v>-17580.7714343318</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
-        <v>183231.95120000001</v>
+        <v>-16537.962573805798</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
-        <v>182899.00349999999</v>
+        <v>-15705.0120337885</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
-        <v>183404.27160000001</v>
+        <v>-18123.6221396086</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
-        <v>182312.64809999999</v>
+        <v>-17152.074665128599</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
-        <v>183606.58230000001</v>
+        <v>-16158.533696488699</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
-        <v>182447.2536</v>
+        <v>-16554.2253305247</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
-        <v>183687.53479999999</v>
+        <v>-15638.6720320928</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
-        <v>182913.0294</v>
+        <v>-16521.244040742102</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
-        <v>183167.59289999999</v>
+        <v>-16054.205495158199</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
-        <v>184012.28940000001</v>
+        <v>10772.433394354101</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
-        <v>245644.38519999999</v>
+        <v>61091.005934254703</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
-        <v>261213.4019</v>
+        <v>61991.641715780097</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
-        <v>262292.04560000001</v>
+        <v>62831.170542597902</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
-        <v>262579.3848</v>
+        <v>62289.686455304298</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
-        <v>262825.6323</v>
+        <v>66616.072779485403</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
-        <v>232635.54319999999</v>
+        <v>-12863.4752887916</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
-        <v>182229.90460000001</v>
+        <v>-14994.7020095115</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
-        <v>182673.54209999999</v>
+        <v>-16289.4965530564</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
-        <v>181981.76329999999</v>
+        <v>-15591.0458984375</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
-        <v>182800.51629999999</v>
+        <v>-17844.994152693798</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
-        <v>187470.61960000001</v>
+        <v>64503.215883894401</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
-        <v>266845.01</v>
+        <v>62650.272911722197</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
-        <v>262281.37079999998</v>
+        <v>63864.542118939702</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
-        <v>262425.23300000001</v>
+        <v>62798.209049466903</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
-        <v>262509.97200000001</v>
+        <v>64956.347642172703</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
-        <v>264140.38290000003</v>
+        <v>63466.280636199801</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
-        <v>262880.81809999997</v>
+        <v>64840.564811229502</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
-        <v>261636.6471</v>
+        <v>65105.538836782303</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
-        <v>262214.68609999999</v>
+        <v>63240.324563876398</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
-        <v>262691.56790000002</v>
+        <v>63121.211462619402</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
-        <v>262917.71549999999</v>
+        <v>-2044.68280131611</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
-        <v>183699.04490000001</v>
+        <v>-17566.310477625098</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
-        <v>184303.33119999999</v>
+        <v>-14649.3860663552</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
-        <v>183389.21179999999</v>
+        <v>-17089.754619489398</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
-        <v>183836.88449999999</v>
+        <v>-17207.662971428701</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
-        <v>183517.598</v>
+        <v>-16373.6519084216</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
-        <v>183198.965</v>
+        <v>-14593.609584858899</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
-        <v>183699.53169999999</v>
+        <v>-17041.018593401601</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
-        <v>183004.1477</v>
+        <v>-16545.823789115999</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
-        <v>184039.86780000001</v>
+        <v>-15883.526790284301</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
-        <v>183011.07610000001</v>
+        <v>-25577.244273939799</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
-        <v>210469.59789999999</v>
+        <v>65587.572721339093</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
-        <v>264367.50530000002</v>
+        <v>63373.778498113097</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
-        <v>262953.283</v>
+        <v>64516.799004262801</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
-        <v>262596.53129999997</v>
+        <v>62529.671129256902</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
-        <v>262982.44170000002</v>
+        <v>62701.742324607701</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
-        <v>259456.86679999999</v>
+        <v>-15556.1328786414</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
-        <v>179205.3316</v>
+        <v>-17842.0131137637</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
-        <v>183239.25880000001</v>
+        <v>-15369.207214991</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
-        <v>183176.9137</v>
+        <v>-14070.645864956001</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
-        <v>182807.4553</v>
+        <v>-13817.9869963744</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
-        <v>183835.69880000001</v>
+        <v>-14527.0444264043</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
-        <v>182677.42139999999</v>
+        <v>-14130.7862557146</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
-        <v>183503.14060000001</v>
+        <v>-13943.188190050199</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
-        <v>182647.3357</v>
+        <v>-18129.486859150398</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
-        <v>183960.3769</v>
+        <v>-15431.843309166399</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
-        <v>182720.73360000001</v>
+        <v>-16518.245700062998</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
-        <v>182543.53349999999</v>
+        <v>-17671.186372526099</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
-        <v>184532.3265</v>
+        <v>-16466.262338231601</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
-        <v>182263.13690000001</v>
+        <v>-17072.057265514199</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
-        <v>182116.45680000001</v>
+        <v>-14844.987876286201</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
-        <v>183020.72760000001</v>
+        <v>-15229.098933229199</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
-        <v>182402.11850000001</v>
+        <v>-18089.276022513601</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
-        <v>183000.86429999999</v>
+        <v>-16180.0853916049</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
-        <v>184391.7182</v>
+        <v>-18830.029905455998</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
-        <v>182945.54250000001</v>
+        <v>-16814.058194239198</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
-        <v>183516.34659999999</v>
+        <v>-16122.6510030113</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
-        <v>183776.0313</v>
+        <v>-16243.889279089701</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
-        <v>183145.30960000001</v>
+        <v>-16854.021524499301</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
-        <v>184581.24470000001</v>
+        <v>-15237.4891525608</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
-        <v>183561.1488</v>
+        <v>-14099.2740953351</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
-        <v>182681.01199999999</v>
+        <v>-16256.9635155304</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
-        <v>185535.21660000001</v>
+        <v>62042.038454383503</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
-        <v>267478.82799999998</v>
+        <v>64331.27734375</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
-        <v>261406.2524</v>
+        <v>63837.483209677397</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
-        <v>261965.95199999999</v>
+        <v>63008.6857523574</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
-        <v>263303.03580000001</v>
+        <v>63301.243640978799</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
-        <v>261911.6439</v>
+        <v>63444.825334126203</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
-        <v>262165.98910000001</v>
+        <v>61344.766463692802</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
-        <v>262741.03389999998</v>
+        <v>63509.736879182303</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
-        <v>262119.38579999999</v>
+        <v>63457.193442666598</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
-        <v>262943.04869999998</v>
+        <v>61420.382138184497</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
-        <v>263115.47340000002</v>
+        <v>62891.093845540403</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
-        <v>261946.9779</v>
+        <v>64147.530999526003</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
-        <v>263366.37229999999</v>
+        <v>64257.851744186701</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
-        <v>262012.82079999999</v>
+        <v>63908.407859070801</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
-        <v>263397.45079999999</v>
+        <v>63224.846282733102</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
-        <v>262022.65760000001</v>
+        <v>54416.166501765903</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
-        <v>210658.2297</v>
+        <v>-14860.173808224499</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
-        <v>183951.95670000001</v>
+        <v>-16033.0820311814</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
-        <v>183252.9436</v>
+        <v>-15711.3842714084</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
-        <v>183034.00409999999</v>
+        <v>-16075.898511448901</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
-        <v>182398.48060000001</v>
+        <v>-23247.174223642</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
-        <v>182971.1747</v>
+        <v>66371.596668313097</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
-        <v>184530.91279999999</v>
+        <v>63139.481792661602</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
-        <v>182090.24859999999</v>
+        <v>63172.201228491598</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
-        <v>182711.7905</v>
+        <v>62422.882830509603</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
-        <v>182566.59469999999</v>
+        <v>63806.810045086502</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
-        <v>183529.6955</v>
+        <v>63238.44921875</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
-        <v>268354.8273</v>
+        <v>64719.105266203398</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
-        <v>262804.30099999998</v>
+        <v>63158.747963349699</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
-        <v>262014.1545</v>
+        <v>63083.105079841102</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
-        <v>263021.16810000001</v>
+        <v>65201.544867051198</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
-        <v>263574.3652</v>
+        <v>63998.445999662697</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
-        <v>261962.20009999999</v>
+        <v>63198.632715156797</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
-        <v>263121.46899999998</v>
+        <v>62996.774312433801</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
-        <v>263203.92859999998</v>
+        <v>64108.434483208497</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
-        <v>262176.54149999999</v>
+        <v>62635.7147378269</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
-        <v>262265.48379999999</v>
+        <v>13344.730669107201</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
-        <v>263814.63559999998</v>
+        <v>-16233.788822883</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
-        <v>263155.50679999997</v>
+        <v>-17467.379375282999</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
-        <v>263016.48959999997</v>
+        <v>-17415.1624071068</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
-        <v>262569.5601</v>
+        <v>-15895.9534876871</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
-        <v>262494.00890000002</v>
+        <v>-15462.8470932079</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
-        <v>262472.75569999998</v>
+        <v>-14481.350835412701</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
-        <v>263011.00020000001</v>
+        <v>-16407.057962359599</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
-        <v>262602.4289</v>
+        <v>-17388.2695723207</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
-        <v>261629.75529999999</v>
+        <v>-15255.8437118455</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
-        <v>262467.35009999998</v>
+        <v>-21094.189435567201</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
-        <v>261833.1274</v>
+        <v>65078.094268157598</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
-        <v>262083.34169999999</v>
+        <v>62510.094684288699</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
-        <v>262723.38010000001</v>
+        <v>63163.983348759997</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="2">
-        <v>263085.26319999999</v>
+        <v>63420.993086054499</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="2">
-        <v>262141.4915</v>
+        <v>63737.9903959277</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="2">
-        <v>262693.03360000002</v>
+        <v>63632.009902182901</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
-        <v>176830.5987</v>
+        <v>64301.677522765101</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="2">
-        <v>183846.9037</v>
+        <v>63258.428065870699</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
-        <v>183809.9001</v>
+        <v>63233.538894285201</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="2">
-        <v>184430.7145</v>
+        <v>65471.7679616569</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
-        <v>183205.22080000001</v>
+        <v>62311.624553868904</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
-        <v>182962.6562</v>
+        <v>64842.132115677603</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
-        <v>182803.94010000001</v>
+        <v>64020.126784549997</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
-        <v>183282.2224</v>
+        <v>61926.966107434098</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
-        <v>184354.6464</v>
+        <v>63039.710495263003</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
-        <v>182952.64920000001</v>
+        <v>62660.292045603099</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
-        <v>254956.2978</v>
+        <v>62613.464261649198</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
-        <v>261696.81880000001</v>
+        <v>65071.097484751001</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
-        <v>263744.04350000003</v>
+        <v>63444.877500299401</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
-        <v>262375.01779999997</v>
+        <v>62480.927719231702</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
-        <v>263363.62660000002</v>
+        <v>63179.958240714099</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
-        <v>261360.75030000001</v>
+        <v>63202.057966434098</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
-        <v>262762.35090000002</v>
+        <v>61569.8841688299</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
-        <v>262639.89399999997</v>
+        <v>63818.689757807399</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
-        <v>263498.52</v>
+        <v>63937.570062724299</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
-        <v>262773.01640000002</v>
+        <v>65201.967894606103</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
-        <v>248901.99239999999</v>
+        <v>-13899.327582711399</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
-        <v>179183.17050000001</v>
+        <v>-15222.908118208899</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
-        <v>183756.92540000001</v>
+        <v>-16537.694223453502</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
-        <v>182931.76560000001</v>
+        <v>-16444.7585935231</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
-        <v>181917.68340000001</v>
+        <v>-11998.345984928401</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
-        <v>184314.1931</v>
+        <v>63059.580798766197</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
-        <v>183144.30470000001</v>
+        <v>63502.063829818697</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
-        <v>183389.53510000001</v>
+        <v>62008.054382174698</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
-        <v>183398.57670000001</v>
+        <v>63346.124568478699</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
-        <v>184480.11790000001</v>
+        <v>64167.517566101298</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
-        <v>183121.77600000001</v>
+        <v>62391.549886816203</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
-        <v>266540.06410000002</v>
+        <v>63556.428010968302</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
-        <v>261675.69699999999</v>
+        <v>64012.254712695998</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" s="2">
-        <v>261024.7623</v>
+        <v>61357.960393467001</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
-        <v>263313.85090000002</v>
+        <v>62746.849563515898</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" s="2">
-        <v>262976.89010000002</v>
+        <v>62364.292813206201</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="2">
-        <v>262831.76549999998</v>
+        <v>63547.446335192501</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
-        <v>262731.29840000003</v>
+        <v>62591.272006865503</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" s="2">
-        <v>262699.49249999999</v>
+        <v>63981.367456661501</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" s="2">
-        <v>263599.08169999998</v>
+        <v>63866.886671697997</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
-        <v>261841.29689999999</v>
+        <v>63672.650524810801</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" s="2">
-        <v>223773.55989999999</v>
+        <v>64647.956911661298</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
-        <v>182836.7016</v>
+        <v>63730.804616977599</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
-        <v>181923.12109999999</v>
+        <v>62660.741235729998</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" s="2">
-        <v>183574.0436</v>
+        <v>63367.7031320073</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A858" s="2">
-        <v>183648.4656</v>
+        <v>63216.916951751999</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A859" s="2">
-        <v>193550.1949</v>
+        <v>63221.282606618101</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" s="2">
-        <v>265742.61469999998</v>
+        <v>62271.515102336998</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" s="2">
-        <v>263123.99579999998</v>
+        <v>61492.413870583201</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" s="2">
-        <v>262174.39360000001</v>
+        <v>61151.758680607199</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" s="2">
-        <v>261512.0428</v>
+        <v>66139.948950920298</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" s="2">
-        <v>261849.26949999999</v>
+        <v>-21662.2707817066</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
-        <v>263175.0773</v>
+        <v>-14777.166848573601</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
-        <v>264333.13069999998</v>
+        <v>-14533.906744813899</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
-        <v>262944.0429</v>
+        <v>-15409.759976371301</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" s="2">
-        <v>264195.42060000001</v>
+        <v>-17363.010172403101</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" s="2">
-        <v>262546.47749999998</v>
+        <v>-16436.2895704369</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" s="2">
-        <v>179971.0491</v>
+        <v>-14204.928252965999</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" s="2">
-        <v>184423.7212</v>
+        <v>-16342.868392373701</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" s="2">
-        <v>184342.88630000001</v>
+        <v>-15134.3978365116</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" s="2">
-        <v>183020.8328</v>
+        <v>-18518.124060427399</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
-        <v>183348.8977</v>
+        <v>18591.525858250901</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" s="2">
-        <v>183787.06200000001</v>
+        <v>62205.118938027801</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" s="2">
-        <v>182957.6164</v>
+        <v>63380.052299968498</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" s="2">
-        <v>182983.4068</v>
+        <v>63199.421887195997</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" s="2">
-        <v>183854.31280000001</v>
+        <v>63312.276855243101</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" s="2">
-        <v>183044.36979999999</v>
+        <v>64596.779562101001</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" s="2">
-        <v>219976.06460000001</v>
+        <v>60699.603022369003</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" s="2">
-        <v>263902.0943</v>
+        <v>63587.619969619998</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" s="2">
-        <v>262863.8602</v>
+        <v>63713.878645822202</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
-        <v>262544.92349999998</v>
+        <v>63977.318412764398</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
-        <v>262754.71740000002</v>
+        <v>63064.4953471392</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
-        <v>262613.18219999998</v>
+        <v>64247.242280167098</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
-        <v>262409.5625</v>
+        <v>64846.880253298797</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
-        <v>262263.92119999998</v>
+        <v>64916.773595021099</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
-        <v>262260.8725</v>
+        <v>63561.286389762499</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
-        <v>262823.033</v>
+        <v>65897.456034702496</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
-        <v>262487.40419999999</v>
+        <v>-22433.528523759502</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
-        <v>177447.5882</v>
+        <v>-15572.568286727101</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
-        <v>183082.7267</v>
+        <v>-15055.7852944929</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
-        <v>183381.50870000001</v>
+        <v>-16560.478137551701</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
-        <v>182934.57010000001</v>
+        <v>-16838.1134913932</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
-        <v>182675.8376</v>
+        <v>-14129.508329341201</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
-        <v>184033.00899999999</v>
+        <v>-16514.953526889902</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
-        <v>182932.51319999999</v>
+        <v>-16535.8458061567</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
-        <v>183115.98800000001</v>
+        <v>-15068.2456203565</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
-        <v>183055.84520000001</v>
+        <v>-16960.105027118901</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
-        <v>183641.4449</v>
+        <v>-15524.2121658254</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A901" s="2">
-        <v>183514.2439</v>
+        <v>-13466.9579358256</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A902" s="2">
-        <v>183347.32569999999</v>
+        <v>-15812.1051028085</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" s="2">
-        <v>182643.49909999999</v>
+        <v>-13026.272370943499</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" s="2">
-        <v>183456.88649999999</v>
+        <v>-14906.026599851701</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A905" s="2">
-        <v>182443.58749999999</v>
+        <v>-16910.8857701858</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A906" s="2">
-        <v>183750.76800000001</v>
+        <v>-14218.48871297</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A907" s="2">
-        <v>183487.51199999999</v>
+        <v>-16177.132253026701</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" s="2">
-        <v>183705.40479999999</v>
+        <v>-16368.462194288501</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
-        <v>184230.69260000001</v>
+        <v>-16053.979177781701</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" s="2">
-        <v>182248.78839999999</v>
+        <v>-15684.419957629099</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" s="2">
-        <v>183753.42009999999</v>
+        <v>-16586.751115574101</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" s="2">
-        <v>183308.14540000001</v>
+        <v>-14857.2341747794</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A913" s="2">
-        <v>182986.59640000001</v>
+        <v>-17923.750621655399</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A914" s="2">
-        <v>183048.27160000001</v>
+        <v>-15137.699281642501</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
-        <v>183862.68059999999</v>
+        <v>-11729.0596654252</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A916" s="2">
-        <v>183006.61489999999</v>
+        <v>64382.200844589897</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A917" s="2">
-        <v>268200.02269999997</v>
+        <v>64201.914336272101</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" s="2">
-        <v>262081.46239999999</v>
+        <v>63367.265708784798</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A919" s="2">
-        <v>262944.90269999998</v>
+        <v>64904.966874472702</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A920" s="2">
-        <v>262003.6373</v>
+        <v>65118.989781600998</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
-        <v>262959.26510000002</v>
+        <v>62975.626058009198</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" s="2">
-        <v>262317.86259999999</v>
+        <v>62266.257416955603</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" s="2">
-        <v>262483.63069999998</v>
+        <v>61960.7922606594</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" s="2">
-        <v>262824.47129999998</v>
+        <v>63877.254959732301</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" s="2">
-        <v>262196.00219999999</v>
+        <v>64329.280025154803</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" s="2">
-        <v>262774.49579999998</v>
+        <v>61779.120071568403</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" s="2">
-        <v>262081.70680000001</v>
+        <v>62640.591464888799</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" s="2">
-        <v>261837.41870000001</v>
+        <v>61998.8855172408</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" s="2">
-        <v>262903.0049</v>
+        <v>61893.7134560048</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" s="2">
-        <v>262271.51459999999</v>
+        <v>64123.118865329299</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" s="2">
-        <v>263504.72230000002</v>
+        <v>64272.5532823295</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" s="2">
-        <v>263092.2452</v>
+        <v>64370.042995940901</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" s="2">
-        <v>262490.74329999997</v>
+        <v>62997.252307368602</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A934" s="2">
-        <v>262249.1385</v>
+        <v>62570.831726600998</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A935" s="2">
-        <v>262594.17729999998</v>
+        <v>63635.364559519599</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A936" s="2">
-        <v>263168.04090000002</v>
+        <v>64591.3072046589</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A937" s="2">
-        <v>262483.27110000001</v>
+        <v>64253.360465891303</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A938" s="2">
-        <v>263015.86210000003</v>
+        <v>65021.553271833698</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A939" s="2">
-        <v>262029.94940000001</v>
+        <v>61580.003400057103</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" s="2">
-        <v>260839.47459999999</v>
+        <v>62804.1909142718</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A941" s="2">
-        <v>262836.34869999997</v>
+        <v>61120.275971478302</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A942" s="2">
-        <v>263982.96909999999</v>
+        <v>63874.449645034103</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A943" s="2">
-        <v>262633.98269999999</v>
+        <v>63447.896007314797</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A944" s="2">
-        <v>263246.41399999999</v>
+        <v>63701.678218974099</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A945" s="2">
-        <v>262151.02730000002</v>
+        <v>64456.925576363901</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A946" s="2">
-        <v>262819.95209999999</v>
+        <v>63106.8381150286</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A947" s="2">
-        <v>263257.78889999999</v>
+        <v>62965.707212660403</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A948" s="2">
-        <v>262654.62689999997</v>
+        <v>62493.521956571298</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A949" s="2">
-        <v>262389.96909999999</v>
+        <v>61864.519107287502</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A950" s="2">
-        <v>263356.43599999999</v>
+        <v>63054.506121562001</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A951" s="2">
-        <v>261823.10500000001</v>
+        <v>62366.559397243102</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A952" s="2">
-        <v>262909.42749999999</v>
+        <v>62999.281691005803</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A953" s="2">
-        <v>262031.5667</v>
+        <v>62647.049848495903</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A954" s="2">
-        <v>262578.02620000002</v>
+        <v>63975.463669997203</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A955" s="2">
-        <v>262579.35710000002</v>
+        <v>63171.383339276203</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A956" s="2">
-        <v>262543.9155</v>
+        <v>61494.888810939003</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A957" s="2">
-        <v>263170.23420000001</v>
+        <v>64220.055452989298</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A958" s="2">
-        <v>263193.45400000003</v>
+        <v>63859.298916848202</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A959" s="2">
-        <v>261580.96840000001</v>
+        <v>63421.956738125802</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A960" s="2">
-        <v>261860.9412</v>
+        <v>62097.205132138399</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A961" s="2">
-        <v>263529.74979999999</v>
+        <v>64214.542812755601</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A962" s="2">
-        <v>262210.51179999998</v>
+        <v>63986.687715604203</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A963" s="2">
-        <v>263422.36339999997</v>
+        <v>63062.215397577696</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A964" s="2">
-        <v>260620.53580000001</v>
+        <v>63232.697955892501</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A965" s="2">
-        <v>261743.9167</v>
+        <v>62509.008513949098</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A966" s="2">
-        <v>262487.3223</v>
+        <v>61801.511111097803</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A967" s="2">
-        <v>262285.8934</v>
+        <v>64116.187046817096</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A968" s="2">
-        <v>261970.92259999999</v>
+        <v>64852.282142981203</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A969" s="2">
-        <v>262511.52639999997</v>
+        <v>63821.363366927799</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A970" s="2">
-        <v>261869.91080000001</v>
+        <v>62060.086576414396</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A971" s="2">
-        <v>262691.88929999998</v>
+        <v>63270.495520634402</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A972" s="2">
-        <v>262999.04580000002</v>
+        <v>62831.545899756697</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A973" s="2">
-        <v>263167.03379999998</v>
+        <v>63554.452452329897</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A974" s="2">
-        <v>262702.87400000001</v>
+        <v>60150.610769817402</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A975" s="2">
-        <v>264050.10550000001</v>
+        <v>62712.4298296907</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A976" s="2">
-        <v>262190.87280000001</v>
+        <v>61878.244916905198</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A977" s="2">
-        <v>262183.80910000001</v>
+        <v>64009.465794419601</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A978" s="2">
-        <v>262852.07919999998</v>
+        <v>63480.739408943402</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A979" s="2">
-        <v>262800.1397</v>
+        <v>66034.964393664297</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A980" s="2">
-        <v>261940.7647</v>
+        <v>63845.737148402601</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A981" s="2">
-        <v>262240.01850000001</v>
+        <v>62222.654559101204</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A982" s="2">
-        <v>262620.3223</v>
+        <v>63525.6913026041</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A983" s="2">
-        <v>262459.46769999998</v>
+        <v>62062.749201199003</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A984" s="2">
-        <v>261647.3731</v>
+        <v>62227.989841956398</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A985" s="2">
-        <v>262750.7083</v>
+        <v>64149.371003817301</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A986" s="2">
-        <v>262192.90500000003</v>
+        <v>62181.816391591899</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A987" s="2">
-        <v>262857.4032</v>
+        <v>63889.820085212799</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A988" s="2">
-        <v>262770.12699999998</v>
+        <v>61859.463269879998</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A989" s="2">
-        <v>263024.42800000001</v>
+        <v>66009.6667332051</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A990" s="2">
-        <v>262834.73950000003</v>
+        <v>62755.480444809</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A991" s="2">
-        <v>263079.92210000003</v>
+        <v>63100.863282665297</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A992" s="2">
-        <v>262700.27669999999</v>
+        <v>62381.331007052999</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A993" s="2">
-        <v>262605.77419999999</v>
+        <v>61771.368615366599</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A994" s="2">
-        <v>261379.9362</v>
+        <v>65364.885373705802</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A995" s="2">
-        <v>262154.73109999998</v>
+        <v>61926.1168569285</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A996" s="2">
-        <v>263538.701</v>
+        <v>62339.954025370404</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A997" s="2">
-        <v>262858.28499999997</v>
+        <v>63379.598734822997</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A998" s="2">
-        <v>261728.93669999999</v>
+        <v>64525.834185115702</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A999" s="2">
-        <v>263370.08909999998</v>
+        <v>63217.170649018597</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1000" s="2">
-        <v>263204.55119999999</v>
+        <v>63545.3441268979</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1001" s="2">
-        <v>262809.46490000002</v>
+        <v>64095.931032267501</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
